--- a/data/raw data greater Seattle area.xlsx
+++ b/data/raw data greater Seattle area.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanne\Desktop\fintech-project-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1FEFF7-BBFD-4297-8CE5-C4550615D48E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B3419-6CC8-418F-9377-099679A867EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$T$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2284,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="N547" sqref="N547"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34856,52 +34859,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T1" xr:uid="{B45D0F26-7C66-4104-A6C6-5D3922EE5AFB}"/>
   <mergeCells count="54">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="A62:A71"/>
-    <mergeCell ref="A72:A81"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="A92:A101"/>
-    <mergeCell ref="A102:A111"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A122:A131"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="A142:A151"/>
-    <mergeCell ref="A152:A161"/>
-    <mergeCell ref="A162:A171"/>
-    <mergeCell ref="A172:A181"/>
-    <mergeCell ref="A182:A191"/>
-    <mergeCell ref="A192:A201"/>
-    <mergeCell ref="A202:A211"/>
-    <mergeCell ref="A212:A221"/>
-    <mergeCell ref="A222:A231"/>
-    <mergeCell ref="A232:A241"/>
-    <mergeCell ref="A242:A251"/>
-    <mergeCell ref="A252:A261"/>
-    <mergeCell ref="A262:A271"/>
-    <mergeCell ref="A272:A281"/>
-    <mergeCell ref="A282:A291"/>
-    <mergeCell ref="A292:A301"/>
-    <mergeCell ref="A302:A311"/>
-    <mergeCell ref="A312:A321"/>
-    <mergeCell ref="A322:A331"/>
-    <mergeCell ref="A332:A341"/>
-    <mergeCell ref="A342:A351"/>
-    <mergeCell ref="A352:A361"/>
-    <mergeCell ref="A362:A371"/>
-    <mergeCell ref="A372:A381"/>
-    <mergeCell ref="A382:A391"/>
-    <mergeCell ref="A392:A401"/>
-    <mergeCell ref="A402:A411"/>
-    <mergeCell ref="A412:A421"/>
-    <mergeCell ref="A422:A431"/>
-    <mergeCell ref="A432:A441"/>
-    <mergeCell ref="A442:A451"/>
     <mergeCell ref="A452:A461"/>
     <mergeCell ref="A462:A471"/>
     <mergeCell ref="A472:A481"/>
@@ -34911,6 +34870,51 @@
     <mergeCell ref="A492:A501"/>
     <mergeCell ref="A502:A511"/>
     <mergeCell ref="A512:A521"/>
+    <mergeCell ref="A402:A411"/>
+    <mergeCell ref="A412:A421"/>
+    <mergeCell ref="A422:A431"/>
+    <mergeCell ref="A432:A441"/>
+    <mergeCell ref="A442:A451"/>
+    <mergeCell ref="A352:A361"/>
+    <mergeCell ref="A362:A371"/>
+    <mergeCell ref="A372:A381"/>
+    <mergeCell ref="A382:A391"/>
+    <mergeCell ref="A392:A401"/>
+    <mergeCell ref="A302:A311"/>
+    <mergeCell ref="A312:A321"/>
+    <mergeCell ref="A322:A331"/>
+    <mergeCell ref="A332:A341"/>
+    <mergeCell ref="A342:A351"/>
+    <mergeCell ref="A252:A261"/>
+    <mergeCell ref="A262:A271"/>
+    <mergeCell ref="A272:A281"/>
+    <mergeCell ref="A282:A291"/>
+    <mergeCell ref="A292:A301"/>
+    <mergeCell ref="A202:A211"/>
+    <mergeCell ref="A212:A221"/>
+    <mergeCell ref="A222:A231"/>
+    <mergeCell ref="A232:A241"/>
+    <mergeCell ref="A242:A251"/>
+    <mergeCell ref="A152:A161"/>
+    <mergeCell ref="A162:A171"/>
+    <mergeCell ref="A172:A181"/>
+    <mergeCell ref="A182:A191"/>
+    <mergeCell ref="A192:A201"/>
+    <mergeCell ref="A102:A111"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A122:A131"/>
+    <mergeCell ref="A132:A141"/>
+    <mergeCell ref="A142:A151"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="A72:A81"/>
+    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="A92:A101"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
